--- a/output_additional_column/1986.xlsx
+++ b/output_additional_column/1986.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="3">
@@ -512,7 +512,7 @@
         <v>34320</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="4">
@@ -536,7 +536,7 @@
         <v>69867</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="5">
@@ -560,7 +560,7 @@
         <v>42386</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="6">
@@ -584,7 +584,7 @@
         <v>29999</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="7">
@@ -608,7 +608,7 @@
         <v>41411</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="8">
@@ -632,7 +632,7 @@
         <v>71952</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         <v>92910</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>7500</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="11">
@@ -704,7 +704,7 @@
         <v>32880</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="12">
@@ -728,7 +728,7 @@
         <v>21888</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="13">
@@ -752,7 +752,7 @@
         <v>71952</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="14">
@@ -776,7 +776,7 @@
         <v>25252</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="15">
@@ -800,7 +800,7 @@
         <v>20425</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="16">
@@ -824,7 +824,7 @@
         <v>91820</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="17">
@@ -848,7 +848,7 @@
         <v>19485</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="18">
@@ -872,7 +872,7 @@
         <v>21846</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="19">
@@ -896,7 +896,7 @@
         <v>45921</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="20">
@@ -920,7 +920,7 @@
         <v>83033</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="21">
@@ -944,7 +944,7 @@
         <v>14906</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="22">
@@ -968,7 +968,7 @@
         <v>34728</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="23">
@@ -992,7 +992,7 @@
         <v>80910</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="24">
@@ -1016,7 +1016,7 @@
         <v>38508</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="25">
@@ -1040,7 +1040,7 @@
         <v>26576</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="26">
@@ -1064,7 +1064,7 @@
         <v>8940</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="27">
@@ -1088,7 +1088,7 @@
         <v>22518</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="28">
@@ -1112,7 +1112,7 @@
         <v>38197</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="29">
@@ -1136,7 +1136,7 @@
         <v>20491</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="30">
@@ -1160,7 +1160,7 @@
         <v>28072</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="31">
@@ -1184,7 +1184,7 @@
         <v>79529</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="32">
@@ -1208,7 +1208,7 @@
         <v>42386</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="33">
@@ -1232,7 +1232,7 @@
         <v>27161</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="34">
@@ -1256,7 +1256,7 @@
         <v>80141</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="35">
@@ -1280,7 +1280,7 @@
         <v>83512</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="36">
@@ -1304,7 +1304,7 @@
         <v>21955</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="37">
@@ -1328,7 +1328,7 @@
         <v>78394</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="38">
@@ -1352,7 +1352,7 @@
         <v>33235</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="39">
@@ -1376,7 +1376,7 @@
         <v>23477</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="40">
@@ -1400,7 +1400,7 @@
         <v>39146</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="41">
@@ -1424,7 +1424,7 @@
         <v>20425</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="42">
@@ -1448,7 +1448,7 @@
         <v>82333</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
     <row r="43">
@@ -1472,7 +1472,7 @@
         <v>26816</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44703.76711452647</v>
+        <v>44703.79033406897</v>
       </c>
     </row>
   </sheetData>
